--- a/user_details.xlsx
+++ b/user_details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kundan_Kumar\Desktop\Notes\Guvi_Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1799B5-BE4A-4124-A1CD-0D706AF040C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3958C38D-287D-4E4B-8E8C-5A0DD10EADD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>username</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>w</t>
-  </si>
-  <si>
-    <t>Adminsss</t>
   </si>
 </sst>
 </file>
@@ -453,7 +450,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -490,7 +487,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
